--- a/formats/excel/MCO/2025/Formats RSA 25.xlsx
+++ b/formats/excel/MCO/2025/Formats RSA 25.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0142964A\Documents\GitHub\formats_pmeasyr\formats\excel\MCO\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/GitHub/formats_pmeasyr/formats/excel/MCO/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F497A87-14F4-3446-A178-817390FBEBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26745" windowHeight="16695" tabRatio="444"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="26740" windowHeight="16700" tabRatio="444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIXE" sheetId="1" r:id="rId1"/>
     <sheet name="ZUM" sheetId="2" r:id="rId2"/>
     <sheet name="ZACTE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="187">
   <si>
     <t>position</t>
   </si>
@@ -587,13 +592,19 @@
   </si>
   <si>
     <t>Top Supplément Cartcells</t>
+  </si>
+  <si>
+    <t>NBSUPSTFPOLY</t>
+  </si>
+  <si>
+    <t>SUPPLEMENTS POUR STF POLYVALENTS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -658,14 +669,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -979,23 +991,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="47.375" customWidth="1"/>
+    <col min="6" max="6" width="47.33203125" customWidth="1"/>
     <col min="7" max="1019" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1036,7 +1048,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1047,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">A3+C3-A4</f>
+        <f t="shared" ref="D3:D67" si="0">A3+C3-A4</f>
         <v>0</v>
       </c>
       <c r="E3" t="s">
@@ -1057,7 +1069,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>13</v>
       </c>
@@ -1078,7 +1090,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>23</v>
       </c>
@@ -1099,7 +1111,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>26</v>
       </c>
@@ -1120,7 +1132,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>29</v>
       </c>
@@ -1141,7 +1153,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>31</v>
       </c>
@@ -1162,7 +1174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>33</v>
       </c>
@@ -1183,7 +1195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>34</v>
       </c>
@@ -1204,7 +1216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>36</v>
       </c>
@@ -1225,7 +1237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>37</v>
       </c>
@@ -1246,7 +1258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>40</v>
       </c>
@@ -1267,7 +1279,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>42</v>
       </c>
@@ -1288,7 +1300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>44</v>
       </c>
@@ -1309,7 +1321,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>45</v>
       </c>
@@ -1330,7 +1342,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>47</v>
       </c>
@@ -1351,7 +1363,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>48</v>
       </c>
@@ -1372,7 +1384,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>51</v>
       </c>
@@ -1393,7 +1405,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>53</v>
       </c>
@@ -1414,7 +1426,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>56</v>
       </c>
@@ -1435,7 +1447,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>59</v>
       </c>
@@ -1456,7 +1468,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>60</v>
       </c>
@@ -1477,7 +1489,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>61</v>
       </c>
@@ -1498,7 +1510,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>62</v>
       </c>
@@ -1519,7 +1531,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>64</v>
       </c>
@@ -1540,7 +1552,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>68</v>
       </c>
@@ -1561,7 +1573,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>69</v>
       </c>
@@ -1582,7 +1594,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>70</v>
       </c>
@@ -1603,7 +1615,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>71</v>
       </c>
@@ -1624,7 +1636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>75</v>
       </c>
@@ -1645,7 +1657,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>80</v>
       </c>
@@ -1666,7 +1678,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>85</v>
       </c>
@@ -1687,7 +1699,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>89</v>
       </c>
@@ -1708,7 +1720,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>91</v>
       </c>
@@ -1729,7 +1741,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>94</v>
       </c>
@@ -1750,7 +1762,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>96</v>
       </c>
@@ -1771,7 +1783,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>100</v>
       </c>
@@ -1792,7 +1804,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>104</v>
       </c>
@@ -1813,7 +1825,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>105</v>
       </c>
@@ -1834,7 +1846,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>108</v>
       </c>
@@ -1855,7 +1867,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>109</v>
       </c>
@@ -1876,7 +1888,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>110</v>
       </c>
@@ -1894,7 +1906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>111</v>
       </c>
@@ -1915,7 +1927,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>112</v>
       </c>
@@ -1936,7 +1948,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>113</v>
       </c>
@@ -1957,7 +1969,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>114</v>
       </c>
@@ -1978,7 +1990,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>115</v>
       </c>
@@ -1999,7 +2011,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>118</v>
       </c>
@@ -2020,7 +2032,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>121</v>
       </c>
@@ -2041,7 +2053,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>124</v>
       </c>
@@ -2062,7 +2074,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>127</v>
       </c>
@@ -2083,7 +2095,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>130</v>
       </c>
@@ -2104,7 +2116,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>133</v>
       </c>
@@ -2125,7 +2137,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>136</v>
       </c>
@@ -2146,7 +2158,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>137</v>
       </c>
@@ -2167,7 +2179,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>138</v>
       </c>
@@ -2188,7 +2200,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>139</v>
       </c>
@@ -2209,7 +2221,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>143</v>
       </c>
@@ -2227,7 +2239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>151</v>
       </c>
@@ -2248,7 +2260,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>154</v>
       </c>
@@ -2269,7 +2281,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>155</v>
       </c>
@@ -2290,7 +2302,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>158</v>
       </c>
@@ -2311,7 +2323,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>161</v>
       </c>
@@ -2332,33 +2344,33 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
         <v>164</v>
       </c>
-      <c r="B65" t="s">
-        <v>108</v>
-      </c>
-      <c r="C65">
+      <c r="B65" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" s="4">
         <v>3</v>
       </c>
-      <c r="D65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E65" t="s">
-        <v>35</v>
-      </c>
-      <c r="F65" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="D65" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>167</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -2371,57 +2383,57 @@
         <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>170</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C67">
         <v>3</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D92" si="1">A67+C67-A68</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E67" t="s">
         <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>173</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C68">
         <v>3</v>
       </c>
       <c r="D68">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D68:D93" si="1">A68+C68-A69</f>
         <v>0</v>
       </c>
       <c r="E68" t="s">
         <v>35</v>
       </c>
       <c r="F68" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>176</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -2434,36 +2446,36 @@
         <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>179</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2476,15 +2488,15 @@
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2497,18 +2509,18 @@
         <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C73">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <f t="shared" si="1"/>
@@ -2518,18 +2530,18 @@
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D74">
         <f t="shared" si="1"/>
@@ -2538,16 +2550,16 @@
       <c r="E74" t="s">
         <v>7</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="F74" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -2559,16 +2571,16 @@
       <c r="E75" t="s">
         <v>7</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="F75" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -2577,19 +2589,19 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B77" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -2598,19 +2610,19 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="1" customFormat="1">
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B78" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -2619,188 +2631,190 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>202</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C79" s="1">
+        <v>204</v>
+      </c>
+      <c r="B79" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79">
         <v>1</v>
       </c>
       <c r="D79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>203</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C80" s="1">
+        <v>205</v>
+      </c>
+      <c r="B80" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80">
         <v>1</v>
       </c>
       <c r="D80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>204</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C81" s="1">
+        <v>206</v>
+      </c>
+      <c r="B81" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81">
         <v>1</v>
       </c>
       <c r="D81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>205</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C82" s="1">
+        <v>207</v>
+      </c>
+      <c r="B82" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82">
         <v>1</v>
       </c>
       <c r="D82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>206</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C83" s="1">
+        <v>208</v>
+      </c>
+      <c r="B83" t="s">
+        <v>176</v>
+      </c>
+      <c r="C83">
         <v>1</v>
       </c>
       <c r="D83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E83" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>207</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C84" s="1">
+        <v>209</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84">
         <v>1</v>
       </c>
       <c r="D84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="E84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>208</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C85" s="1">
+        <v>210</v>
+      </c>
+      <c r="B85" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85">
         <v>1</v>
       </c>
       <c r="D85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>209</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C86" s="1">
+        <v>211</v>
+      </c>
+      <c r="B86" t="s">
+        <v>183</v>
+      </c>
+      <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B87" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87">
         <f t="shared" si="1"/>
@@ -2809,19 +2823,17 @@
       <c r="E87" t="s">
         <v>7</v>
       </c>
-      <c r="F87" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B88" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C88">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D88">
         <f t="shared" si="1"/>
@@ -2831,15 +2843,15 @@
         <v>7</v>
       </c>
       <c r="F88" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B89" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C89">
         <v>6</v>
@@ -2852,39 +2864,39 @@
         <v>7</v>
       </c>
       <c r="F89" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91">
         <f t="shared" si="1"/>
@@ -2894,35 +2906,56 @@
         <v>35</v>
       </c>
       <c r="F91" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B92" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="C92">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="F92" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="B93" t="s">
+        <v>178</v>
+      </c>
+      <c r="C93">
+        <v>30</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>266</v>
+      </c>
+      <c r="B94" t="s">
         <v>138</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E94" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2933,12 +2966,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="9" customWidth="1"/>
   </cols>
@@ -2949,12 +2982,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="9" customWidth="1"/>
   </cols>
